--- a/medicine/Soins infirmiers et profession infirmière/Centre_hospitalier_de_Luxembourg/Centre_hospitalier_de_Luxembourg.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Centre_hospitalier_de_Luxembourg/Centre_hospitalier_de_Luxembourg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le centre hospitalier de Luxembourg (abrégé en CHL) est l'hôpital public de la ville de Luxembourg, créé en 1975 par le regroupement de plusieurs hôpitaux publics de la capitale du Luxembourg.
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le centre hospitalier de Luxembourg est un établissement public créé par la loi du 10 décembre 1975 entrée en vigueur en 1976 qui procède à la fusion de l'hôpital municipal, de la maternité Grande-duchesse Charlotte et de la Kannerklinik[1].
-À ces trois établissements, la clinique d'Eich s'y est ajoutée le 1er janvier 2004 par arrêté grand-ducal du 3 octobre 2003[1].
-Dans le cadre de la pandémie de Covid-19 au Luxembourg, à titre préventif, une structure hospitalière provisoire est construite près du CHL. Elle pourrait accueillir 200 lits et 100 respirateurs[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le centre hospitalier de Luxembourg est un établissement public créé par la loi du 10 décembre 1975 entrée en vigueur en 1976 qui procède à la fusion de l'hôpital municipal, de la maternité Grande-duchesse Charlotte et de la Kannerklinik.
+À ces trois établissements, la clinique d'Eich s'y est ajoutée le 1er janvier 2004 par arrêté grand-ducal du 3 octobre 2003.
+Dans le cadre de la pandémie de Covid-19 au Luxembourg, à titre préventif, une structure hospitalière provisoire est construite près du CHL. Elle pourrait accueillir 200 lits et 100 respirateurs.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Sites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'organisation en quatre sites issus des établissements fusionnés a été maintenue, ces sites sont appelés des cliniques :
 CHL Centre : L'hôpital municipal, construit juste avant la fusion constitue le CHL Centre et comporte des services de médecine générale, de chirurgie et de psychiatrie ainsi que plusieurs services nationaux comme la neurochirurgie, l'onco-hématologie, les maladies infectieuses et tropicales rares et l'immuno-allergologie ;
